--- a/data/nih-funding/compiled.xlsx
+++ b/data/nih-funding/compiled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/data/nih-funding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB180F2C-CD3B-6F48-8361-C32E676B5E3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C9DDF4C-13F2-DC44-B509-B0908E17DDAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37020" yWindow="1020" windowWidth="31280" windowHeight="21700" xr2:uid="{586DA970-1649-E44A-A0F4-47188E84A3BD}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="2014-2019" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1764,81 +1765,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFECF2F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFECF2F5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2045,6 +1971,81 @@
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFECF2F5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFECF2F5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2080,18 +2081,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{087FF47E-0487-C749-9511-2F729CF2F1DE}" name="Table2" displayName="Table2" ref="A1:I286" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{087FF47E-0487-C749-9511-2F729CF2F1DE}" name="Table2" displayName="Table2" ref="A1:I286" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I286" xr:uid="{2BA6044D-863E-E146-8097-03CF5DC2F126}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EACD81C0-C32B-8D49-8285-4260BFA95C7A}" name="Research/Disease Areas" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A475227B-833F-1E4F-9447-C14EF49D562E}" name="IsCVD" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{4AE35862-F576-0840-AD9B-6A7E248509CC}" name="IsCancer" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{444736B0-1614-F146-B01B-672EA05B5A66}" name="FY 2014 Actual" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{05F4F37E-372F-8F4C-A01B-40EC3E1B69DB}" name="FY 2015 Actual" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{AE1F7269-94A4-5F4E-88B5-9B72334E5777}" name="FY 2016 Actual" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E1E7FD01-8A8B-8542-8A5E-C8606E261FF2}" name="FY 2017 Actual" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{CF48A9C7-DE00-534A-9A8B-B7158F6B50B2}" name="FY 2018 Estimated (Enacted)" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5C216E74-298B-144A-9808-15C3BD5CBD12}" name="FY 2019 Estimated" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{EACD81C0-C32B-8D49-8285-4260BFA95C7A}" name="Research/Disease Areas" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A475227B-833F-1E4F-9447-C14EF49D562E}" name="IsCVD" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4AE35862-F576-0840-AD9B-6A7E248509CC}" name="IsCancer" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{444736B0-1614-F146-B01B-672EA05B5A66}" name="FY 2014 Actual" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{05F4F37E-372F-8F4C-A01B-40EC3E1B69DB}" name="FY 2015 Actual" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{AE1F7269-94A4-5F4E-88B5-9B72334E5777}" name="FY 2016 Actual" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E1E7FD01-8A8B-8542-8A5E-C8606E261FF2}" name="FY 2017 Actual" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CF48A9C7-DE00-534A-9A8B-B7158F6B50B2}" name="FY 2018 Estimated (Enacted)" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{5C216E74-298B-144A-9808-15C3BD5CBD12}" name="FY 2019 Estimated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2396,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4913EB5A-8FEB-D145-9FA9-822628442DF3}">
   <dimension ref="A1:L283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3747,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>194</v>
